--- a/biology/Botanique/Crucianella/Crucianella.xlsx
+++ b/biology/Botanique/Crucianella/Crucianella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crucianella est un genre végétal de la famille des rubiacées.
 Les membres de ce genre sont natifs de l'Eurasie ; ce sont assez souvent des espèces annuelles.
@@ -512,13 +524,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2010) :
 Crucianella aegyptiaca L. (1767)
 Crucianella angustifolia L. (1753)
 Crucianella arabica Schönb.-Tem. &amp; Ehrend. (1986)
-Crucianella baldschuanica Krasch[2]. (1937)
+Crucianella baldschuanica Krasch. (1937)
 Crucianella bithynica Boiss. (1849)
 Crucianella bouarfae Andreonszkyu (1935)
 Crucianella bucharica B.Fedtsch. (1912)
@@ -542,10 +556,10 @@
 Crucianella platyphylla Ehrend. &amp; Schönb.-Tem. (1989)
 Crucianella sabulosa Korovin &amp; Krasch. (1958)
 Crucianella schischkinii Lincz. (1958)
-Crucianella sintenisii Bornm[3]. (1903)
+Crucianella sintenisii Bornm. (1903)
 Crucianella sorgerae Ehrend. (1979)
 Crucianella suaveolens C.A.Mey. (1831)
-Crucianella transjordanica Rech.f.[4] (1950)
+Crucianella transjordanica Rech.f. (1950)
 </t>
         </is>
       </c>
